--- a/CashFlow/ALNY_cashflow.xlsx
+++ b/CashFlow/ALNY_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>310000000.0</v>
+        <v>67526000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>287000000.0</v>
+        <v>-35426000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>207684000.0</v>
+        <v>-31278000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>127629000.0</v>
+        <v>-41549000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>42723000.0</v>
+        <v>-37229000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-32411000.0</v>
@@ -4470,10 +4470,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>293090000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>299982000.0</v>
